--- a/results.xlsx
+++ b/results.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +412,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="23.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="21.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.5546875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="28" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -451,17 +456,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31 de jul. de 2024 08:52:24</t>
+          <t>30 de jul. de 2024 10:16:58</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22,206743S 49,659012W</t>
+          <t>22,207630S 49,652133W</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IP 00489</t>
+          <t>IP 00512</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -478,17 +483,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31 de jul. de 2024 09:12:34</t>
+          <t>30 de jul. de 2024 10:35:25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22,206645S 49,659335W</t>
+          <t>22,207642S 49,652417W</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IP 00490</t>
+          <t>IP 00502</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -505,25 +510,1635 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30 de jul. de 2024 11:01:50</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>22,207540S 49,652785W</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>IP 00503</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 11:23:06</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>22,207505S 49,653110W</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>IP 00501</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0  . 2024 114132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>IP 00491</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 12:30:56</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>222074128 49,653715W</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>IP 00492</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 14:00:20</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>222073928 49,654038W</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>IP 00493</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 14:16:11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>22,207372S 49,654328W</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>IP 00494</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 14:33:52</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>22,207285S 49,654632W</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>IP 00495</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 14:53:05</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>222072878 49,654950W</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>IP 00496</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 15:09:47</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>222072828 49,655262W</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>IP 00497</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 15:32:26</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>222071828 49,655585W.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>IP 00498</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 15:55:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>222071738 49,655987W</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>IP 00499</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ª</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0  . 2024 161105</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>IP 00500</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 16:26:57</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>222070258 49,656625W</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>IP 00481</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 16:44:11</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>22,206988S 49,656895W</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>IP 00482</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 17:04:14</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>22,206963S 49,657255W</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>IP 00483</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 17:32:13</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>222068938 49,657533W</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>IP 00484</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 17:52:14</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>22,206783S 49,657742W</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>IP 00485</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 18:14:44</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>22,206867S 49,658088W</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>IP 00486</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>30 de jul. de 2024 18:53:39</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>22,206863S 49,658383W</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>IP 00487</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 08:26:20</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22,206762S 49,658673W</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>IP 00488</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 08:52:24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>22,206743S 49,659012W</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>IP 00489</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 09:12:34</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22,206645S 49,659335W</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>IP 00490</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>31 dejul. de 2024 09:29:58</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>22,206610S 49,659670W</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>IP 00472</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>rua Armando Salles de Oliveira</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>31 dejul. de 2024 09:54:30</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>22,206557S 49,660070W</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>IP 00473</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 10:27:20</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>22,206510S 49,660423W</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>IP 00474</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ss.CcsspLq T TPTCTSTITSA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1  . 2024 104322</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>IP 00475</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>31 dejul. de 2024 11:00:33</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>22,206382S 49,661215W</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>IP 00476</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>31 dejul. de 2024 11:18:38</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>22,206347S 49,661447W</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>IP 00477</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1  . 2024 113335</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>IP 00478</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31 dejul. de 2024 11:57:13</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>22,206247S 49,662037W</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>IP 00479</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>31 dejul. de 2024 13:24:40</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>22,206252S 49,662342W</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1p00480</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 13:41:44</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>22,206197S 49,662650W</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>IP 00461</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 14:04:30</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>22,206132S 49,662983W</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>IP 00462</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 14:21:54</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>22,206117S 49,663318W</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>IP 00463</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 14:46:02</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>22,206075S 49,663567W</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>IP 00464</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 15:02:12</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>22,206060S 49,663723W</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>IP 00465</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 15:40:47</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>22,207738S 49,656335W</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>IP 00466</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>31 dejul. de 2024 15:59:18</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>22,207353S 49,656265W</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>IP 00467</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 16:14:09</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>22,207027S 49,656200W</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>IP 00468</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>31 dejul. de 2024 16:31:38</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>22,206653S 49,656138W</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>IP 00469</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>22,2063575 49,656090W</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>IP 00470</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>22,2061 03S 49,656025W</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>IP 00471</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>31 dejul. de 2024 17:51:11</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>22,205797S 49,656010W</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>IP 00454</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 18:07:44</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>22,205365S 49,655905W</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>IP 00455</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 18:31:31</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>22,204967S 49,655840W</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>IP 00456</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 18:48:35</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>22,203623S 49,655632W</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>IP 00457</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 19:11:04</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>22,203973S 49,655713W</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>IP 00458</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 19:29:09</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>22,204305S 49,655712W</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>IP 00459</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 19:49:39</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>22,204638S 49,65581 W</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>IP 00460</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 08:53:20</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>22,203252S 49,655562W</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>IP 00448</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 09:09:46</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>22,202902S 49,655493W</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>IP 00449</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 09:26:25</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>22,202627S 49,655467W</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>IP 00450</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 09:45:45</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>22,202290S 49,655392W</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>IP 00451</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 10:03:37</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>22,202017S 49,655335W</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>IP 00452</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 10:22:39</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>22,201603S 49,655303W</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>IP 00453.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 10:42:22</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>22,201273S 49,655217W</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>IP 00437</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 11:04:30</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>22,200870S 49,655040W</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>IP 00438</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>31 dejul. de 2024 16:31:38</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>22,206653S 49,656138W</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>IP 00469</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>to Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>ne</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 15:02:12</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>22,206060S 49,663723W</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>IP 00465</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>31 de jul. de 2024 15:40:47</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>22,207738S 49,656335W</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>IP 00466</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>rua Armando Salles de Oliveira</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>31 dejul. de 2024 15:59:18</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>22,207353S 49,656265W</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>IP 00467</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>80w</t>
         </is>

--- a/results.xlsx
+++ b/results.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,19 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="23.44140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="21.77734375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.5546875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="28" bestFit="1" customWidth="1" min="4" max="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -525,7 +520,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>A rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -564,12 +559,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>57 ——</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0  . 2024 114132</t>
+          <t>30  . 2024 114132</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -579,7 +574,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>5 h rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,7 +591,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>222074128 49,653715W</t>
+          <t>22,207412S 49,653715W</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -606,7 +601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>a rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -623,7 +618,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>222073928 49,654038W</t>
+          <t>22,207392S 49,654038W</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -633,7 +628,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>PmA rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -687,7 +682,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>pm rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -704,7 +699,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>222072878 49,654950W</t>
+          <t>22,207287S 49,654950W</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -731,7 +726,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>222072828 49,655262W</t>
+          <t>22,207282S 49,655262W</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -758,7 +753,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>222071828 49,655585W.</t>
+          <t>22,207182S 49,655585W</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -768,7 +763,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>m rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -785,7 +780,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>222071738 49,655987W</t>
+          <t>22,207173S 49,655987W</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -795,7 +790,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>sP TuaArmando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -807,12 +802,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ª</t>
+          <t>a a o R</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0  . 2024 161105</t>
+          <t>30  . 2024 161105</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -839,7 +834,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>222070258 49,656625W</t>
+          <t>22,207025S 49,656625W</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -849,7 +844,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>TMm rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -920,7 +915,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>222068938 49,657533W</t>
+          <t>22,206893S 49,657533W</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -930,7 +925,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>R rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -957,7 +952,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>7 rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1146,7 +1141,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>B rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1173,7 +1168,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>I BN rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1185,12 +1180,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ss.CcsspLq T TPTCTSTITSA</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1  . 2024 104322</t>
+          <t>31 E .  204 14S 2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1200,7 +1195,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>ruaArmando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1212,7 +1207,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>31 dejul. de 2024 11:00:33</t>
+          <t>31 de jul. de 2024 11:00:33</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1227,7 +1222,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>S 2 ruaArmando Sallesde Oliveira</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1266,12 +1261,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>[ —m o</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1  . 2024 113335</t>
+          <t>31  . 2024 1133735</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1281,7 +1276,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>r  rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1308,7 +1303,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>ETA rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1330,12 +1325,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1p00480</t>
+          <t>1p00480,</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>P rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1374,7 +1369,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>31 de jul. de 2024 14:04:30</t>
+          <t>31 dejul. de 2024 14:04:30</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1433,7 +1428,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>22,206075S 49,663567W</t>
+          <t>22,206079S 49,663567W</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1443,7 +1438,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>m rua Armando Salles de Oliveira</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1482,7 +1477,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>31 de jul. de 2024 15:40:47</t>
+          <t>31 dejul. de 2024 15:40:47</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1509,12 +1504,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>31 dejul. de 2024 15:59:18</t>
+          <t>31 de jul. de 2024 15:59:18</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>22,207353S 49,656265W</t>
+          <t>22,207393S 49,0060200W</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1524,7 +1519,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1536,12 +1531,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>31 de jul. de 2024 16:14:09</t>
+          <t>31 dejul. de 2024 16:14:09</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>22,207027S 49,656200W</t>
+          <t>22,2070275 49,656200W</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1551,7 +1546,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1563,12 +1558,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>31 dejul. de 2024 16:31:38</t>
+          <t>31 de jul. de 2024 16:31:38</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>22,206653S 49,656138W</t>
+          <t>22,2000935 49,6060135W</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1578,7 +1573,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1588,9 +1583,14 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>31 daejul, de 2UZA 1/:19:47</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>22,2063575 49,656090W</t>
+          <t>EE ESS W</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1610,9 +1610,14 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>31 aejul, de ZUZA 1/:32:1/</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>22,2061 03S 49,656025W</t>
+          <t>EE E NSS S0E</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1622,7 +1627,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1634,12 +1639,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>31 dejul. de 2024 17:51:11</t>
+          <t>31 de jul. de 2024 17:51:11</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22,205797S 49,656010W</t>
+          <t>22,2097975 49,006010W</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1649,7 +1654,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1666,7 +1671,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>22,205365S 49,655905W</t>
+          <t>22,205369S 49,655905W</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1676,7 +1681,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1693,7 +1698,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>22,204967S 49,655840W</t>
+          <t>22,2049675 49,090540W</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1703,7 +1708,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1720,7 +1725,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>22,203623S 49,655632W</t>
+          <t>22,2030235 49,090032W</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1730,7 +1735,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1747,7 +1752,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>22,203973S 49,655713W</t>
+          <t>22,203973S 49,090713W</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1757,7 +1762,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1774,7 +1779,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>22,204305S 49,655712W</t>
+          <t>22,2045098 49,090712W</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1784,7 +1789,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1801,7 +1806,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>22,204638S 49,65581 W</t>
+          <t>22,204638S 49,690510W</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1811,7 +1816,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1828,7 +1833,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>22,203252S 49,655562W</t>
+          <t>222032925 49,090002W</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1838,7 +1843,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>B rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1855,7 +1860,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>22,202902S 49,655493W</t>
+          <t>222029025 49,090493W</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1865,7 +1870,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>N rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1882,7 +1887,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>22,202627S 49,655467W</t>
+          <t>222020275 49,6090467W</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1892,7 +1897,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1909,7 +1914,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>22,202290S 49,655392W</t>
+          <t>222022905 49,0993592W</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1919,7 +1924,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>8 rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1936,7 +1941,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>22,202017S 49,655335W</t>
+          <t>22,2020175 49,695335W</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1946,7 +1951,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1963,7 +1968,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>22,201603S 49,655303W</t>
+          <t>22,201603S 49,695303W</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1973,7 +1978,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1990,7 +1995,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>22,201273S 49,655217W</t>
+          <t>22,201273S 49,695217W</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2000,7 +2005,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>A rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2017,7 +2022,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>22,200870S 49,655040W</t>
+          <t>22,200870S 49,695040W</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2027,7 +2032,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2039,49 +2044,49 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>31 dejul. de 2024 16:31:38</t>
+          <t>1 de ago. de 2024 11:41:21</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>22,206653S 49,656138W</t>
+          <t>22,200592S 49,699128W</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>IP 00469</t>
+          <t>IP 00439</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>to Salviano pereira de Andrade</t>
+          <t>N rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ne</t>
+          <t>80w</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>31 de jul. de 2024 15:02:12</t>
+          <t>1 e ago. de ZUZA 11:97:909</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22,206060S 49,663723W</t>
+          <t>SEE NS S ENE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>IP 00465</t>
+          <t>IP 00440</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2093,22 +2098,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>31 de jul. de 2024 15:40:47</t>
+          <t>1 de ago. de 2024 13:27:45</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>22,207738S 49,656335W</t>
+          <t>22,199788S 49,695013W</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>IP 00466</t>
+          <t>IP 00441</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rua Armando Salles de Oliveira</t>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2120,17 +2125,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>31 dejul. de 2024 15:59:18</t>
+          <t>1 de ago. de 2024 13:47:57</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22,207353S 49,656265W</t>
+          <t>22,199435S 49,654885W</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>IP 00467</t>
+          <t>IP 00442</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2141,6 +2146,1368 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 14:03:15</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>22,199180S 49,654895W</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>IP 00443</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 14:20:10</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>22,1987525 49,694797W</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>IP 00444</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 14:36:43</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>22,198530S 49,694772W</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>IP 00445</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 14:53:06</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>22,198162S5 49,654708W</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>IP 00446</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>h rua Prefeito Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 15:10:23</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>22,197795S 49,654662W</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>IP 00447</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 15:30:54</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>22,197470S 49,654628W</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>IP 00432</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 15:52:34</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>22,197200S 49,6949575W</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>IP 00433</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 16:08:49</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>22,196833S 49,694505W</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>IP 00434</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 16:36:41</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>22,1969738 49,694507W</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>IP 00435</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 16:52:14</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>22,1901975 49,004402W</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>IP 00436</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 17:09:19</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>22,199930S 49,004295W</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>IP 00424</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 17:29:06</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>22,199978S 49,004095W</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>IP 00425</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1 de ago. de 2024 17:45:18</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>22,1992925 49,003935W</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>IP 00426</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>rua Prefeito Salviano pereira de Andrade</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Rua Sargento Wilson</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>IP 00427</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>myA rua Sarg WIISON de Andrade</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>E UTIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>+ 0E ago. dê 2ULZA U”I.17/.27</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>IP 00428</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1  ruasara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>£ E ago. dê 2ULZA 1U.10.U9</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>IP 00429</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>mmN rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>&lt; ê ago. ê 2ULZ4 1U.59.10</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>IP 00430</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>sP  rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>+£ 0E ago. dê 2ULZA 1U.50.45</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>IP 00431</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>mm rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2 de ago. de 2024 11:03:29</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>22,203708S 49,694772W</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>IP 00419</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>&lt; ê ago. dê 2UZ9 | 1.Z2U.0U</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>IP 00420</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>M rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>—VX“ S</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>IP 00421</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>A rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>&lt; ê ago. dê 2UL24 |11 V LO/</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>IP 00422</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MA rua saro Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>£ ê ago. dê 2UZ9 12.!1.4U0</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>IP 00423</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>MNT rua sarao Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>&lt; e ago. de Z2ZUZA4 12:20:50</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>IP 00405</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>A rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>&lt; e ago. de 2ZUZ4 13:49:10</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>IP 00406</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>f rua sarog Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>&lt; de ago. de 2UZ4 13:95/:44</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>IP 00407</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>ENSNA rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>&lt; e ago. de ZUZA 14:13:9]</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SEE ES SE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>IP 00408</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>x rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4 e ago. de ZUZA 14:93:02</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>IP 00409</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>V rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>&lt; e ago. de 2UZ4 14:47:39</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>IP 00410</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>SSBA rua saro Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>&lt; e ago. de ZUZA4 1u:U4:40</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>IP 00411</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>ENSN rua saro Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>&lt; e ago. de ZUZA 1u:22:90</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>EE EWNE SS SNE</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>IP 00412</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>PM rua saro Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>&lt; e ago. de ZUZA 195:4/:41</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>IP 00413</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>NE rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>&lt; e ago. de ZUZ4 T1O:U2:0U</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>IP 00414</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>BBA rua saro Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>&lt; de ago. de 2UZ4 10:129:04</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>IP 00415</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>MENZA rua saro Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Pears m—</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>IP 00416</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2 de ago. de 2024 16:54:01</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>22,198662S 49,653965W</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>IP 00417</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>mm rua sarao Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>&lt; e ago. de ZUZ4 1/:11:oU</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>IP 00418</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>&lt; e ago. de Z2ZUZA4 1/:20:50</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>IP 00401</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2 rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>&lt; e ago. de 2UZ4 1/:4/:15</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>IP 00402</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>MP rua sarao Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>3 de ago. de 2024 08:38:42</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>22,1971835 49,603690W</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>IP 00403</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>messss rua saro Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>* ê ago. dê 2ULZA VO.u/.2t</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>IP 00404</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Z rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>+ ê ago. dê 2ULZA UZ. V.US</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>IP 00378</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>FT S rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>+ ê ago. ê Z2UZ4 U?7.52.00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>IP 00379</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>P rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>+ ê ago. ê 2UZA4 TU.00.4o</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>IP 00380</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>9 ê ago. dê ZUZA 1U:2/.2]</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>IP 00381</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>rua sara Wilson de Abel de Oliveira</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>80w</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>IP 00382</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>EN N a des Nervy de castro 80w B</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>ne</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>EA c</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>IP 00383</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>IAHES NMeRKde Castross 2 80wl</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>ne</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>IP 00384</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>ne</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>IP 00385</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Hades NEFVEIENSAS tr o ENB W</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>ne</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>IP 00386</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>ne</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>IP 00387</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>v IERNESSELNTRERSIS 80w B</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>ne</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>5 de ago. de 2024 09:18:57</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>22,1980185 49,660690W</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>IP 00364</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>D ex
+D b</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>w80</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>| &gt; ê ago. ê 2ULZA U?7.959.4/</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>IP 00340</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>o N</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>w80</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>| 5 de ago. de 2024 10:09:50</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>22,1989625 49,660477W</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>IP 00341</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>L P</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>w80</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>9 e ago. de ZUZA 1U:23:04</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>SE ES SN</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>IP 00342</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>w80</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>v ê àago. dê 2ULA 1U.500.47</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>EE  W</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>IP 00343</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>w80</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Y ê ago. dê 2uUZA T1L.USO/</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>IP 00344</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>w80</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>| ) Gê ago. ê 2ULZ4 |1. Z2U.S2</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>IP 00345</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>d A D ST</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>w80</t>
         </is>
       </c>
     </row>
